--- a/output/fit_clients/fit_round_421.xlsx
+++ b/output/fit_clients/fit_round_421.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1589387216.574195</v>
+        <v>1547673752.769308</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09387229559826973</v>
+        <v>0.1144041569344254</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04432660111878203</v>
+        <v>0.03520874084851081</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>794693548.7008609</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2246068610.041492</v>
+        <v>1785794913.999078</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1310344387164535</v>
+        <v>0.1667018626120663</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04997845513465549</v>
+        <v>0.05052697990114577</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1123034383.201619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3270009086.199235</v>
+        <v>4497460023.588169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1641495652776014</v>
+        <v>0.166583076208173</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0285123705307428</v>
+        <v>0.02968750459924527</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>152</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1635004505.573329</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3265641699.021901</v>
+        <v>3836645285.660813</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09780608856244662</v>
+        <v>0.09401043834861496</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04433115724977825</v>
+        <v>0.04865351166582268</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>155</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1632820901.810537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1791117336.149657</v>
+        <v>1788495830.524345</v>
       </c>
       <c r="F6" t="n">
-        <v>0.100427344272283</v>
+        <v>0.09079040755944398</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0456882792252804</v>
+        <v>0.05587321769743318</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J6" t="n">
-        <v>895558720.2917668</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2583749654.205538</v>
+        <v>2658982290.602918</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06590055140915201</v>
+        <v>0.07758963742590798</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03199828364410875</v>
+        <v>0.0347136016983025</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>132</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1291874832.137541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3273078935.053682</v>
+        <v>3584628143.476352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1418960407708493</v>
+        <v>0.1874073255844176</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02178651955951317</v>
+        <v>0.03225291056387058</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>134</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1636539552.972769</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1948355954.182662</v>
+        <v>1836873518.350452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1819072215697451</v>
+        <v>0.1430583763960591</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02868022902006746</v>
+        <v>0.03601318427571529</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>974178010.8881408</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3646161303.892934</v>
+        <v>4056382960.672258</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1426021340962489</v>
+        <v>0.1873640525577666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05228422502572216</v>
+        <v>0.04902614911365612</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>177</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1823080646.442948</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2689793463.100632</v>
+        <v>4102639434.388746</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1635968224058363</v>
+        <v>0.1270730700046651</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05001592229508374</v>
+        <v>0.04740458230321095</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>174</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1344896652.864537</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3191824051.062303</v>
+        <v>2599295025.699603</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1743917707387151</v>
+        <v>0.1954757405413093</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03983236832553521</v>
+        <v>0.04314701448342161</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>143</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1595912061.137327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4685731005.254605</v>
+        <v>5130858579.271016</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06894053278235178</v>
+        <v>0.06379025216172066</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02378841290530884</v>
+        <v>0.02509162839577431</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>141</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2342865522.742808</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3452784789.137095</v>
+        <v>2559478544.614172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1336014109608197</v>
+        <v>0.1647852417547497</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04007666942448673</v>
+        <v>0.04192787620811794</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1726392396.232226</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1686052906.9407</v>
+        <v>1573649641.240702</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1026530550527617</v>
+        <v>0.08321175441744079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03575970109121526</v>
+        <v>0.03698549591120372</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>843026581.1806862</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2663629946.803298</v>
+        <v>2131006819.231951</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07674425327093387</v>
+        <v>0.1036195325929227</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0457071111631954</v>
+        <v>0.05071962392224812</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>85</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1331814989.628519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4035000299.322847</v>
+        <v>3368433139.411716</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1703391182915145</v>
+        <v>0.1362598461144262</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03670172615934483</v>
+        <v>0.03832887202354933</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>124</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2017500182.566441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2736771003.9865</v>
+        <v>3078315936.965407</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1245465718325634</v>
+        <v>0.1251604690286746</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02714441579697111</v>
+        <v>0.02316274396365932</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>138</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1368385551.305199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1132388579.220139</v>
+        <v>1284178424.928017</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1302303114436577</v>
+        <v>0.170468920521435</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02242047816596427</v>
+        <v>0.01905954578463159</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>566194351.0673803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2302030831.858161</v>
+        <v>2420771086.932757</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1141387768384834</v>
+        <v>0.152556197373592</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02950071138255337</v>
+        <v>0.02847608773779461</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1151015410.131896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2040905766.825869</v>
+        <v>2350253875.365515</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08306474281490614</v>
+        <v>0.06376469139354672</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04420495011900158</v>
+        <v>0.03306753673862008</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1020452915.446724</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2803198257.737923</v>
+        <v>2869898232.304159</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1031549973572827</v>
+        <v>0.1355646127705326</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04150236829105969</v>
+        <v>0.05532943874618673</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1401599202.200965</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>992694907.5709049</v>
+        <v>1260177298.592354</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1155396866195146</v>
+        <v>0.1807225564297422</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03512874117919251</v>
+        <v>0.05239922752947579</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>496347525.2064414</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3803752087.836162</v>
+        <v>3391907384.679933</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09862143052737586</v>
+        <v>0.09573809945192806</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03043092264802659</v>
+        <v>0.03670101830998484</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>123</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1901876025.1288</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>968303004.5165666</v>
+        <v>898232229.7323701</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09919310454697433</v>
+        <v>0.09867454366891694</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02819880608554502</v>
+        <v>0.020863735346368</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>484151573.546681</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1320584821.895533</v>
+        <v>1082095875.356387</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1106489023001495</v>
+        <v>0.1167866673261165</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03440521471797316</v>
+        <v>0.02601770375689964</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>660292461.4962656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3763964769.172849</v>
+        <v>3563365285.886415</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1176644090640312</v>
+        <v>0.133930234768445</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02066326598395503</v>
+        <v>0.02043613991196176</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1881982406.466665</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3724341419.767923</v>
+        <v>3233709686.254686</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09750173591145755</v>
+        <v>0.09560231831456512</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03588088019126699</v>
+        <v>0.03264201418461174</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1862170783.986389</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5694506402.504409</v>
+        <v>4328023332.206551</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1494464711760052</v>
+        <v>0.1280516513033412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04129995625356159</v>
+        <v>0.03881850353911807</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>186</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2847253100.676061</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1947260347.455069</v>
+        <v>2189771897.58997</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1347285006969847</v>
+        <v>0.1190088557421273</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02966785518081719</v>
+        <v>0.03459349823738003</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>973630205.1719599</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>977922208.1632335</v>
+        <v>1056405771.704323</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09043034630126962</v>
+        <v>0.09051449660545283</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04513422958925228</v>
+        <v>0.04038688105100854</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>488961107.8371348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1160594446.60087</v>
+        <v>1378510267.075403</v>
       </c>
       <c r="F32" t="n">
-        <v>0.120625632198968</v>
+        <v>0.1132779984090624</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02725315279836505</v>
+        <v>0.02381658156296038</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>580297221.3825525</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2976960508.729451</v>
+        <v>2272038923.302169</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1368730560526949</v>
+        <v>0.1444015706278267</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04938532647208391</v>
+        <v>0.06128383614620232</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>127</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1488480251.960956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1004380305.291656</v>
+        <v>1261632376.292735</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08144835266829753</v>
+        <v>0.09225014698334101</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02527339516806374</v>
+        <v>0.01994975351783252</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>502190189.7787153</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>867709115.3161467</v>
+        <v>1232810770.824314</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09628819220417652</v>
+        <v>0.08721856203275946</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04248403667052211</v>
+        <v>0.03755813613904326</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>433854605.2528003</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3234858926.998841</v>
+        <v>2470914948.909667</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1525741822508999</v>
+        <v>0.1339014169170446</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02627807143300866</v>
+        <v>0.02229027540189864</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>107</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1617429426.628357</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2722820874.798609</v>
+        <v>2011501594.750781</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07844841137428023</v>
+        <v>0.09741189566979076</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03117237404233299</v>
+        <v>0.03700032152007332</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>113</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1361410564.109067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1504660915.054728</v>
+        <v>1805209536.039094</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1196042826198906</v>
+        <v>0.0736599277295176</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02664234067289449</v>
+        <v>0.03729996930822466</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>752330506.1396832</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1803302448.514702</v>
+        <v>1675752457.236241</v>
       </c>
       <c r="F39" t="n">
-        <v>0.130268323633898</v>
+        <v>0.1380088294699306</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03195209641656835</v>
+        <v>0.02396298025376459</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>901651248.7011825</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1457838443.534686</v>
+        <v>1477947003.303821</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1128499707310133</v>
+        <v>0.1083204420347562</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05763932223609263</v>
+        <v>0.05048665968029853</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>728919198.5204126</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1896432213.587388</v>
+        <v>2285007677.367547</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1634393191293099</v>
+        <v>0.1570982112502662</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03029472702550039</v>
+        <v>0.0306669757168235</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>948216191.1502981</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3610235944.397809</v>
+        <v>3172362004.994509</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1017393184248829</v>
+        <v>0.1108251130486789</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03415032401507152</v>
+        <v>0.03562100854282151</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>138</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1805117974.684066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1913228149.330837</v>
+        <v>2732181963.511271</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1891411584719007</v>
+        <v>0.1445031455337571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02184006244698926</v>
+        <v>0.02592035970033714</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>147</v>
-      </c>
-      <c r="J43" t="n">
-        <v>956614182.3620228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1782816737.508662</v>
+        <v>2102535924.835643</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07889197541686366</v>
+        <v>0.09289316972677387</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0264094154724385</v>
+        <v>0.02773928693995386</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>891408431.7748256</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2138247808.563557</v>
+        <v>2431352872.666923</v>
       </c>
       <c r="F45" t="n">
-        <v>0.188005940928195</v>
+        <v>0.1214236430194401</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04529989761012049</v>
+        <v>0.05547480715704605</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1069123909.138257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5631736430.316777</v>
+        <v>5583699277.877842</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1517636951045259</v>
+        <v>0.126569403389358</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05670432654132222</v>
+        <v>0.04335721135336756</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>150</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2815868278.120776</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4832396321.037924</v>
+        <v>3620754598.385559</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1581194515268002</v>
+        <v>0.1920667691761548</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05577401714630742</v>
+        <v>0.05948824316788638</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>113</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2416198206.826247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3327344869.793779</v>
+        <v>3881942637.299829</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1093494181368102</v>
+        <v>0.07413293719975879</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03338531788657127</v>
+        <v>0.03900373307749221</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1663672508.410299</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1805736879.530241</v>
+        <v>1368493068.810487</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1312807210321111</v>
+        <v>0.1893808793032545</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02947528661436657</v>
+        <v>0.03916065025575085</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>902868424.2612273</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2769195529.219093</v>
+        <v>3187639956.526928</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1476088922934707</v>
+        <v>0.1521703768378913</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04467618747634421</v>
+        <v>0.04906436867708522</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>144</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1384597840.87704</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1102877606.052733</v>
+        <v>1313028100.08969</v>
       </c>
       <c r="F51" t="n">
-        <v>0.193048798836652</v>
+        <v>0.1753404794764316</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03381582146499704</v>
+        <v>0.04647730377066914</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>551438870.3252332</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3847246967.718097</v>
+        <v>3751681213.224959</v>
       </c>
       <c r="F52" t="n">
-        <v>0.122330752550919</v>
+        <v>0.1063883700522294</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04407121412211785</v>
+        <v>0.0509029762448237</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>173</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1923623549.343751</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3046707594.844599</v>
+        <v>2407383867.4922</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1520885864536622</v>
+        <v>0.1546795861086047</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02257527057093233</v>
+        <v>0.03555688382648763</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1523353826.649125</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3395722131.591087</v>
+        <v>4620064223.676424</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1238123771939882</v>
+        <v>0.1489505572634449</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04222742763697814</v>
+        <v>0.05220656490095305</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1697861082.438416</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3316647820.683084</v>
+        <v>3159325801.208326</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1701426909705218</v>
+        <v>0.1963061674046757</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02067893026509934</v>
+        <v>0.02994929727842765</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1658323855.135617</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1417347347.864539</v>
+        <v>1664368843.687157</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1029310398369021</v>
+        <v>0.1488513265007505</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04892196580886285</v>
+        <v>0.04506280489856311</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>708673728.4498761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3052564875.182478</v>
+        <v>3759079031.10613</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1832217604496867</v>
+        <v>0.1674951139890583</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02065415431505709</v>
+        <v>0.0199606425899359</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>134</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1526282446.426105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1834821094.313712</v>
+        <v>1699138365.888463</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1460922154369547</v>
+        <v>0.1371157593062889</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02498381661686388</v>
+        <v>0.02888386928870251</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>917410547.7677639</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5271534736.272673</v>
+        <v>5016171924.320326</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1153717153966948</v>
+        <v>0.08142841492955587</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04015672866251786</v>
+        <v>0.03598205117221033</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2635767282.770054</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2388811571.454301</v>
+        <v>3072863914.767615</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1714920492398599</v>
+        <v>0.1322517599900645</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03038392549977856</v>
+        <v>0.02954785454728669</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>129</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1194405791.985197</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2917772484.744665</v>
+        <v>2316583374.570649</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1404358006199748</v>
+        <v>0.1183237047283403</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02170685873685294</v>
+        <v>0.02262727115394292</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>144</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1458886230.610314</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2057966301.173173</v>
+        <v>1313368107.604977</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1476450264134644</v>
+        <v>0.1723400458686946</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03293851409255833</v>
+        <v>0.04117454427810398</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1028983217.338643</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4992967128.962385</v>
+        <v>5213643232.717119</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09403981946734989</v>
+        <v>0.06842228300272937</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03990217198966123</v>
+        <v>0.03490914108041221</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>121</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2496483582.575745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5470418088.410299</v>
+        <v>4048951381.655592</v>
       </c>
       <c r="F64" t="n">
-        <v>0.161731984601473</v>
+        <v>0.1795209505926158</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03153325360473516</v>
+        <v>0.02242664917359086</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>131</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2735209183.509989</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5014175668.40316</v>
+        <v>5135982118.2342</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1123724508442501</v>
+        <v>0.1101046681938259</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02905668296012387</v>
+        <v>0.01963579626815323</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>151</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2507087792.284493</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4029028739.562261</v>
+        <v>3514921009.328031</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1588757780334646</v>
+        <v>0.1525024010208781</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03792719485000992</v>
+        <v>0.04089428881002233</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2014514344.906746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2419580589.934761</v>
+        <v>2405685732.641006</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06723828508542737</v>
+        <v>0.06820099271437025</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04540437270522659</v>
+        <v>0.03316147362348632</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>134</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1209790362.39461</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5488712165.311697</v>
+        <v>4668093111.051288</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1093443689058426</v>
+        <v>0.1359457626550664</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03253972303479435</v>
+        <v>0.04916389658431287</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>135</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2744356168.679233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1766068756.523688</v>
+        <v>2132244818.124793</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1443223049693242</v>
+        <v>0.1485871616366007</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05893223166153769</v>
+        <v>0.04581167080020401</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>883034352.9654609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2259872426.821585</v>
+        <v>3213220925.752519</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06651434695179295</v>
+        <v>0.06845975367754802</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04935740623476485</v>
+        <v>0.03569782552918713</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>120</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1129936142.228693</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5533898598.601151</v>
+        <v>4953417119.196236</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1273707188560731</v>
+        <v>0.1471901183833323</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02116806888391903</v>
+        <v>0.02190627976081294</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>153</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2766949444.854704</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2210347660.799374</v>
+        <v>2181047650.426054</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07362705107758789</v>
+        <v>0.06789102818084648</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03733213097153995</v>
+        <v>0.03995552774349222</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1105173742.833793</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2401114280.806793</v>
+        <v>3356397649.500382</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1060072330285654</v>
+        <v>0.09184109564785101</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03963720069062008</v>
+        <v>0.04475148567663444</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>159</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1200557191.252767</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3812703767.270139</v>
+        <v>3582748214.430094</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1571249475685293</v>
+        <v>0.1838671358454104</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02942011840136358</v>
+        <v>0.03106344630319357</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>143</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1906351878.786016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1721241929.126008</v>
+        <v>1804588675.407272</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1587143634690388</v>
+        <v>0.1079113853665945</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02791882460495731</v>
+        <v>0.03237087705234745</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>860620954.8966415</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3488010090.714611</v>
+        <v>5150774978.695699</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08246960657535835</v>
+        <v>0.1099305076771864</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02281216489563653</v>
+        <v>0.0279341360749565</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>96</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1744005008.624516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1846311204.156286</v>
+        <v>2040664506.747697</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1342395329025637</v>
+        <v>0.1636182500580299</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0265755354731071</v>
+        <v>0.02113488066518002</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>923155640.9563034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2988204511.731597</v>
+        <v>4246201032.878012</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1023298553759615</v>
+        <v>0.136399802936773</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04237098598104396</v>
+        <v>0.04785875022906686</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>146</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1494102294.035658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1640920466.044239</v>
+        <v>1760497709.079411</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1235912643702849</v>
+        <v>0.1098637402338586</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03150413623938933</v>
+        <v>0.03580048154236473</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>820460291.8930198</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4597806011.93947</v>
+        <v>4762997294.633686</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09621018682050517</v>
+        <v>0.07704149115260893</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02493399619010004</v>
+        <v>0.02963172866320349</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2298903035.189468</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4900752297.083117</v>
+        <v>3392757160.57731</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1160826740805357</v>
+        <v>0.137249120485168</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02450027661591334</v>
+        <v>0.02701377246094622</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2450376145.216657</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5369733381.840468</v>
+        <v>4486153140.276343</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1606714047362811</v>
+        <v>0.1890482119104533</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02295855511509739</v>
+        <v>0.02115479370056041</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>148</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2684866654.261127</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2383063600.409776</v>
+        <v>1913638875.419743</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1369709451161175</v>
+        <v>0.1084312286489276</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03628484911929471</v>
+        <v>0.04185330469935455</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1191531833.177815</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2509131310.188406</v>
+        <v>2581211624.559675</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08997644139207889</v>
+        <v>0.09781711798142451</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04059292314587436</v>
+        <v>0.03450878824982902</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1254565585.532282</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3073008044.562497</v>
+        <v>3102142761.87093</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1335731518266459</v>
+        <v>0.1578330202022896</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03776185085002688</v>
+        <v>0.05377025999416573</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>159</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1536504090.489172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1971580747.205044</v>
+        <v>1775853320.278948</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1440336337540091</v>
+        <v>0.1460243011528066</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02698895965459609</v>
+        <v>0.02676147656964533</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>985790397.2809891</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>951708546.8844168</v>
+        <v>1296701677.341238</v>
       </c>
       <c r="F87" t="n">
-        <v>0.178356299893272</v>
+        <v>0.1391373160916498</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02931128891973899</v>
+        <v>0.03746409244020948</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>475854265.4121082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3626333471.93392</v>
+        <v>2922137336.421691</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1750124619868602</v>
+        <v>0.1287966364442211</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03081483813685624</v>
+        <v>0.02664360925783291</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>167</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1813166828.322566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2430856622.003958</v>
+        <v>3311281180.686231</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1193693697013114</v>
+        <v>0.1027235132969889</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0274087683757571</v>
+        <v>0.03466620376548336</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>141</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1215428390.842352</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1936323173.112664</v>
+        <v>1823139259.02097</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1241734344009215</v>
+        <v>0.08456008307743253</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04252614141169617</v>
+        <v>0.05556129113475542</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>968161645.1464583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2067968970.571613</v>
+        <v>1717706321.622342</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1742336883890985</v>
+        <v>0.1544192087342863</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06103679477788045</v>
+        <v>0.05665897336825427</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1033984448.533568</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2087347660.303725</v>
+        <v>2647517931.32217</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07554774681142697</v>
+        <v>0.0762934453226068</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04282668645336218</v>
+        <v>0.04198577441645129</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1043673782.988747</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4372733755.536538</v>
+        <v>4623361595.478923</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1368066392443832</v>
+        <v>0.1169589410785264</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05405914996583441</v>
+        <v>0.05122880957292599</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>127</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2186366854.301157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2095012986.582436</v>
+        <v>1521059120.461328</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1127166140013646</v>
+        <v>0.1430364662322247</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03874055716813532</v>
+        <v>0.02722051602749435</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1047506503.99578</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2125715204.366871</v>
+        <v>2318960856.892952</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1190267438697529</v>
+        <v>0.100699537927825</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04473788569542157</v>
+        <v>0.03972883284538065</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1062857665.500849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1832294531.057619</v>
+        <v>2173052648.14748</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09288625532300285</v>
+        <v>0.1374898110440697</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04061086138650927</v>
+        <v>0.03750765127230533</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>916147270.4163212</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4903088906.328436</v>
+        <v>3821731707.057117</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1404726607687653</v>
+        <v>0.1335122751539254</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01886266983304785</v>
+        <v>0.02277011921231658</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>135</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2451544582.198576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2401271156.030649</v>
+        <v>3260604836.974545</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1134837973363141</v>
+        <v>0.1020769846174788</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03084909599209433</v>
+        <v>0.03242480256614051</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>112</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1200635522.116638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2374077830.168665</v>
+        <v>2727966027.031274</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1185951823569314</v>
+        <v>0.1052396885821877</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03328564374550146</v>
+        <v>0.03297743685496154</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1187038855.752557</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2920271549.036356</v>
+        <v>3648454127.572449</v>
       </c>
       <c r="F100" t="n">
-        <v>0.119462690940115</v>
+        <v>0.1288054577759682</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02042155050905469</v>
+        <v>0.01895960161777466</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1460135758.998739</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2959610835.77057</v>
+        <v>3029297394.085998</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1585701402062771</v>
+        <v>0.1392011180309041</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04143220486924055</v>
+        <v>0.0389855763179901</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>170</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1479805501.596673</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_421.xlsx
+++ b/output/fit_clients/fit_round_421.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1547673752.769308</v>
+        <v>2450633853.673444</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1144041569344254</v>
+        <v>0.07976542500228662</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03520874084851081</v>
+        <v>0.03944889598658969</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1785794913.999078</v>
+        <v>2378087536.079324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1667018626120663</v>
+        <v>0.1686118584832262</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05052697990114577</v>
+        <v>0.05003579544811953</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4497460023.588169</v>
+        <v>4115554505.680732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.166583076208173</v>
+        <v>0.1593286483143245</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02968750459924527</v>
+        <v>0.03791488525297219</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3836645285.660813</v>
+        <v>3144793803.072983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09401043834861496</v>
+        <v>0.1031678896446411</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04865351166582268</v>
+        <v>0.05051074472794214</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1788495830.524345</v>
+        <v>2765366199.974791</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09079040755944398</v>
+        <v>0.1360304098038179</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05587321769743318</v>
+        <v>0.04999232673694633</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2658982290.602918</v>
+        <v>2647381487.7672</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07758963742590798</v>
+        <v>0.08127775315265458</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0347136016983025</v>
+        <v>0.0436678656481416</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3584628143.476352</v>
+        <v>3834407374.962838</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1874073255844176</v>
+        <v>0.1746014988088568</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03225291056387058</v>
+        <v>0.02607956330127764</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1836873518.350452</v>
+        <v>2269440015.115075</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1430583763960591</v>
+        <v>0.1229922810397648</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03601318427571529</v>
+        <v>0.0235783148361056</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4056382960.672258</v>
+        <v>4501902000.561494</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1873640525577666</v>
+        <v>0.1723795158329201</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04902614911365612</v>
+        <v>0.03350220586441025</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4102639434.388746</v>
+        <v>3923229689.813657</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1270730700046651</v>
+        <v>0.1452666733754376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04740458230321095</v>
+        <v>0.03218865112771391</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2599295025.699603</v>
+        <v>2131622219.426028</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1954757405413093</v>
+        <v>0.1354199590283247</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04314701448342161</v>
+        <v>0.05280333950953033</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5130858579.271016</v>
+        <v>4116983673.752637</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06379025216172066</v>
+        <v>0.07026367632319512</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02509162839577431</v>
+        <v>0.03125587953098738</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2559478544.614172</v>
+        <v>3002342169.331629</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1647852417547497</v>
+        <v>0.1321958417604362</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04192787620811794</v>
+        <v>0.02702585588067967</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1573649641.240702</v>
+        <v>1221984553.232647</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08321175441744079</v>
+        <v>0.07525855879874306</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03698549591120372</v>
+        <v>0.04015168339865073</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2131006819.231951</v>
+        <v>1961492572.872009</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1036195325929227</v>
+        <v>0.09525801467862174</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05071962392224812</v>
+        <v>0.03782253033365212</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3368433139.411716</v>
+        <v>5238163178.37708</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1362598461144262</v>
+        <v>0.1672536132105258</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03832887202354933</v>
+        <v>0.0379025838542744</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3078315936.965407</v>
+        <v>2555864669.847651</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1251604690286746</v>
+        <v>0.1436810215220006</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02316274396365932</v>
+        <v>0.03336146824790832</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1284178424.928017</v>
+        <v>1047170913.197178</v>
       </c>
       <c r="F19" t="n">
-        <v>0.170468920521435</v>
+        <v>0.1865531399478576</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01905954578463159</v>
+        <v>0.01968766508310858</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2420771086.932757</v>
+        <v>2419279134.043054</v>
       </c>
       <c r="F20" t="n">
-        <v>0.152556197373592</v>
+        <v>0.1323847230400663</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02847608773779461</v>
+        <v>0.02354077316408179</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2350253875.365515</v>
+        <v>2558935086.302082</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06376469139354672</v>
+        <v>0.096520425057412</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03306753673862008</v>
+        <v>0.04548152552903593</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2869898232.304159</v>
+        <v>3664542915.34423</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1355646127705326</v>
+        <v>0.1032663990272589</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05532943874618673</v>
+        <v>0.04501941033861816</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1260177298.592354</v>
+        <v>1290127562.314158</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1807225564297422</v>
+        <v>0.1291622879821399</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05239922752947579</v>
+        <v>0.05185803342840955</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3391907384.679933</v>
+        <v>4106873863.090649</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09573809945192806</v>
+        <v>0.09921774503023993</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03670101830998484</v>
+        <v>0.03522581174419813</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>898232229.7323701</v>
+        <v>1005906092.8879</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09867454366891694</v>
+        <v>0.07692026454987379</v>
       </c>
       <c r="G25" t="n">
-        <v>0.020863735346368</v>
+        <v>0.0257195023869627</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1082095875.356387</v>
+        <v>1427751180.208769</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1167866673261165</v>
+        <v>0.08939753879056124</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02601770375689964</v>
+        <v>0.02441275025537708</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3563365285.886415</v>
+        <v>3342937747.27161</v>
       </c>
       <c r="F27" t="n">
-        <v>0.133930234768445</v>
+        <v>0.1080307621906682</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02043613991196176</v>
+        <v>0.02072595375288859</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3233709686.254686</v>
+        <v>3618384952.54823</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09560231831456512</v>
+        <v>0.09562422431947783</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03264201418461174</v>
+        <v>0.03132238655476743</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4328023332.206551</v>
+        <v>5000584701.773322</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1280516513033412</v>
+        <v>0.1102822254165884</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03881850353911807</v>
+        <v>0.03238945081825348</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2189771897.58997</v>
+        <v>2015562611.3729</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1190088557421273</v>
+        <v>0.09022848349330193</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03459349823738003</v>
+        <v>0.02815667861194712</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1056405771.704323</v>
+        <v>1487385400.306197</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09051449660545283</v>
+        <v>0.09354190691618142</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04038688105100854</v>
+        <v>0.03465921211841212</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1378510267.075403</v>
+        <v>1739270653.678411</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1132779984090624</v>
+        <v>0.1118058986656389</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02381658156296038</v>
+        <v>0.03259002741925697</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2272038923.302169</v>
+        <v>3068991395.310223</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1444015706278267</v>
+        <v>0.1550274739090167</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06128383614620232</v>
+        <v>0.04921027631613219</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1261632376.292735</v>
+        <v>1501236738.627667</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09225014698334101</v>
+        <v>0.08006720339977338</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01994975351783252</v>
+        <v>0.02804946110067849</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1232810770.824314</v>
+        <v>1270614929.696397</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08721856203275946</v>
+        <v>0.08565150827507674</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03755813613904326</v>
+        <v>0.03893888476365878</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2470914948.909667</v>
+        <v>2341616210.82743</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1339014169170446</v>
+        <v>0.1499285950397625</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02229027540189864</v>
+        <v>0.02607113525788273</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2011501594.750781</v>
+        <v>1824556849.742223</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09741189566979076</v>
+        <v>0.06755335402636173</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03700032152007332</v>
+        <v>0.03816087122698417</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1805209536.039094</v>
+        <v>1698132005.25058</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0736599277295176</v>
+        <v>0.07657272218207449</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03729996930822466</v>
+        <v>0.03182898326139923</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1675752457.236241</v>
+        <v>1937209101.027258</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1380088294699306</v>
+        <v>0.1913432696892049</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02396298025376459</v>
+        <v>0.02970248337803815</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1477947003.303821</v>
+        <v>1741981617.506979</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1083204420347562</v>
+        <v>0.1372664299948791</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05048665968029853</v>
+        <v>0.04161298860614612</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2285007677.367547</v>
+        <v>2737507229.716898</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1570982112502662</v>
+        <v>0.1413821023254902</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0306669757168235</v>
+        <v>0.03157760467015432</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3172362004.994509</v>
+        <v>3912544422.57404</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1108251130486789</v>
+        <v>0.105729310806634</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03562100854282151</v>
+        <v>0.03663784353473563</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2732181963.511271</v>
+        <v>1954044960.817094</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1445031455337571</v>
+        <v>0.1786379955139529</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02592035970033714</v>
+        <v>0.02058589400700114</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2102535924.835643</v>
+        <v>2184958666.39253</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09289316972677387</v>
+        <v>0.09198513169705599</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02773928693995386</v>
+        <v>0.0249940365103759</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2431352872.666923</v>
+        <v>2186991033.90308</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1214236430194401</v>
+        <v>0.1203973566816411</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05547480715704605</v>
+        <v>0.04910071271299072</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5583699277.877842</v>
+        <v>4780791380.351636</v>
       </c>
       <c r="F46" t="n">
-        <v>0.126569403389358</v>
+        <v>0.1669572904131601</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04335721135336756</v>
+        <v>0.04852019720129156</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3620754598.385559</v>
+        <v>5189734522.542051</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1920667691761548</v>
+        <v>0.1513622148746952</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05948824316788638</v>
+        <v>0.05354337808326085</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3881942637.299829</v>
+        <v>3298911352.624541</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07413293719975879</v>
+        <v>0.08430039079682923</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03900373307749221</v>
+        <v>0.03331137180350937</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1368493068.810487</v>
+        <v>1874289514.609359</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1893808793032545</v>
+        <v>0.1883707027203891</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03916065025575085</v>
+        <v>0.04043410849411726</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3187639956.526928</v>
+        <v>2996448546.44119</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1521703768378913</v>
+        <v>0.1485117351850278</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04906436867708522</v>
+        <v>0.04741311057914066</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1313028100.08969</v>
+        <v>1419474012.001662</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1753404794764316</v>
+        <v>0.147432170718948</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04647730377066914</v>
+        <v>0.05287588623018022</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3751681213.224959</v>
+        <v>3992803202.558047</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1063883700522294</v>
+        <v>0.1250653240400712</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0509029762448237</v>
+        <v>0.04758608884471027</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2407383867.4922</v>
+        <v>2675630964.4967</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1546795861086047</v>
+        <v>0.1741500778776099</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03555688382648763</v>
+        <v>0.0274453842534995</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4620064223.676424</v>
+        <v>4084698141.338028</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1489505572634449</v>
+        <v>0.1033943551028706</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05220656490095305</v>
+        <v>0.05133632730046524</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3159325801.208326</v>
+        <v>3934155631.429648</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1963061674046757</v>
+        <v>0.1447142716688704</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02994929727842765</v>
+        <v>0.02157440702905429</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1664368843.687157</v>
+        <v>1730057111.100876</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1488513265007505</v>
+        <v>0.1237854188457678</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04506280489856311</v>
+        <v>0.04032836000879335</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3759079031.10613</v>
+        <v>4466677178.422602</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1674951139890583</v>
+        <v>0.1610556469280866</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0199606425899359</v>
+        <v>0.01975103570603695</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1699138365.888463</v>
+        <v>1306262589.789174</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1371157593062889</v>
+        <v>0.1233586654886354</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02888386928870251</v>
+        <v>0.02896613236759262</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5016171924.320326</v>
+        <v>4664559884.280841</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08142841492955587</v>
+        <v>0.1166616222826342</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03598205117221033</v>
+        <v>0.03409584924843926</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3072863914.767615</v>
+        <v>3441099297.337125</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1322517599900645</v>
+        <v>0.1672387801532157</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02954785454728669</v>
+        <v>0.02033484390076027</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2316583374.570649</v>
+        <v>2632444498.31289</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1183237047283403</v>
+        <v>0.1462415224916839</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02262727115394292</v>
+        <v>0.02969153568128086</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1313368107.604977</v>
+        <v>1721345907.497114</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1723400458686946</v>
+        <v>0.1333908357199535</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04117454427810398</v>
+        <v>0.04103063311046069</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5213643232.717119</v>
+        <v>4840548008.378701</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06842228300272937</v>
+        <v>0.1044010085517786</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03490914108041221</v>
+        <v>0.04049418326274993</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4048951381.655592</v>
+        <v>4941626563.667693</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1795209505926158</v>
+        <v>0.1611395567199435</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02242664917359086</v>
+        <v>0.03100520175211153</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5135982118.2342</v>
+        <v>3957894091.058547</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1101046681938259</v>
+        <v>0.1289173330018884</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01963579626815323</v>
+        <v>0.03018974520699019</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3514921009.328031</v>
+        <v>4096175962.014047</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1525024010208781</v>
+        <v>0.1204656852788135</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04089428881002233</v>
+        <v>0.03256518051987235</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2405685732.641006</v>
+        <v>2164101637.429855</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06820099271437025</v>
+        <v>0.09048707934374682</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03316147362348632</v>
+        <v>0.04932187004404028</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4668093111.051288</v>
+        <v>5738797614.105309</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1359457626550664</v>
+        <v>0.1267379822037144</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04916389658431287</v>
+        <v>0.04754341596922092</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2132244818.124793</v>
+        <v>2162522986.617367</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1485871616366007</v>
+        <v>0.175977501253726</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04581167080020401</v>
+        <v>0.04586840226576938</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3213220925.752519</v>
+        <v>2551650148.420202</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06845975367754802</v>
+        <v>0.07437744021433065</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03569782552918713</v>
+        <v>0.03977116256764116</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4953417119.196236</v>
+        <v>3528463611.588599</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1471901183833323</v>
+        <v>0.1559501616001478</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02190627976081294</v>
+        <v>0.02920154682408778</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2181047650.426054</v>
+        <v>1542618654.228182</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06789102818084648</v>
+        <v>0.09861188262988736</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03995552774349222</v>
+        <v>0.04723509782556495</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3356397649.500382</v>
+        <v>3574564828.926804</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09184109564785101</v>
+        <v>0.1015298527132509</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04475148567663444</v>
+        <v>0.0485208769839859</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3582748214.430094</v>
+        <v>2631275080.91165</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1838671358454104</v>
+        <v>0.1474118864918626</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03106344630319357</v>
+        <v>0.0234302681738478</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1804588675.407272</v>
+        <v>2315978647.185938</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1079113853665945</v>
+        <v>0.1497166479323264</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03237087705234745</v>
+        <v>0.03701396304264554</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5150774978.695699</v>
+        <v>4605837308.893221</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1099305076771864</v>
+        <v>0.1006728638384189</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0279341360749565</v>
+        <v>0.02352876962067018</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2040664506.747697</v>
+        <v>1768231390.491074</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1636182500580299</v>
+        <v>0.1262935927959398</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02113488066518002</v>
+        <v>0.02054010224047635</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4246201032.878012</v>
+        <v>3591915280.367548</v>
       </c>
       <c r="F78" t="n">
-        <v>0.136399802936773</v>
+        <v>0.1047676949781391</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04785875022906686</v>
+        <v>0.03895198816720727</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1760497709.079411</v>
+        <v>1642529471.203028</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1098637402338586</v>
+        <v>0.1470599125743241</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03580048154236473</v>
+        <v>0.03160416517738322</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4762997294.633686</v>
+        <v>4847939362.630737</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07704149115260893</v>
+        <v>0.1050599584858313</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02963172866320349</v>
+        <v>0.03526433553273252</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3392757160.57731</v>
+        <v>3362976112.483068</v>
       </c>
       <c r="F81" t="n">
-        <v>0.137249120485168</v>
+        <v>0.09125495211326305</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02701377246094622</v>
+        <v>0.02066111797376204</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4486153140.276343</v>
+        <v>5557384836.704926</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1890482119104533</v>
+        <v>0.1684057088780461</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02115479370056041</v>
+        <v>0.02293058357393583</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1913638875.419743</v>
+        <v>1800220794.425536</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1084312286489276</v>
+        <v>0.1079454976363116</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04185330469935455</v>
+        <v>0.04205459420537573</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2581211624.559675</v>
+        <v>1827039900.122845</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09781711798142451</v>
+        <v>0.08615095724546198</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03450878824982902</v>
+        <v>0.04172299783986128</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3102142761.87093</v>
+        <v>3175826509.612282</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1578330202022896</v>
+        <v>0.1723331383923597</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05377025999416573</v>
+        <v>0.03666014985200125</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1775853320.278948</v>
+        <v>2503692935.814527</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1460243011528066</v>
+        <v>0.1672724973407031</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02676147656964533</v>
+        <v>0.02191040428705651</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1296701677.341238</v>
+        <v>937571469.0342885</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1391373160916498</v>
+        <v>0.1294222551749358</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03746409244020948</v>
+        <v>0.03659408917692703</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2922137336.421691</v>
+        <v>3590640793.436339</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1287966364442211</v>
+        <v>0.1285587641628411</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02664360925783291</v>
+        <v>0.03781486129414389</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3311281180.686231</v>
+        <v>2135199848.185237</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1027235132969889</v>
+        <v>0.1592443142338912</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03466620376548336</v>
+        <v>0.02626580351280543</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1823139259.02097</v>
+        <v>1722716115.489461</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08456008307743253</v>
+        <v>0.1224897413850313</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05556129113475542</v>
+        <v>0.05306480194797637</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1717706321.622342</v>
+        <v>1654091637.778287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1544192087342863</v>
+        <v>0.1641198268119425</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05665897336825427</v>
+        <v>0.04313249401608733</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2647517931.32217</v>
+        <v>1957757926.608702</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0762934453226068</v>
+        <v>0.1003641704346355</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04198577441645129</v>
+        <v>0.04086576235257162</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4623361595.478923</v>
+        <v>4254059301.071352</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1169589410785264</v>
+        <v>0.1210570351060647</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05122880957292599</v>
+        <v>0.04648988848205875</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1521059120.461328</v>
+        <v>2050864673.32235</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1430364662322247</v>
+        <v>0.116154812155692</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02722051602749435</v>
+        <v>0.02858418154269185</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2318960856.892952</v>
+        <v>3173655692.615476</v>
       </c>
       <c r="F95" t="n">
-        <v>0.100699537927825</v>
+        <v>0.1216024852664146</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03972883284538065</v>
+        <v>0.04168650042093881</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2173052648.14748</v>
+        <v>1818365894.379301</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1374898110440697</v>
+        <v>0.08998485690075067</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03750765127230533</v>
+        <v>0.0351011899849708</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3821731707.057117</v>
+        <v>4405631547.685619</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1335122751539254</v>
+        <v>0.1545728095166459</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02277011921231658</v>
+        <v>0.0198616116545519</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3260604836.974545</v>
+        <v>3086224352.917446</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1020769846174788</v>
+        <v>0.1134314820419863</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03242480256614051</v>
+        <v>0.02872173750289621</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2727966027.031274</v>
+        <v>2066614107.033912</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1052396885821877</v>
+        <v>0.1186459633824532</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03297743685496154</v>
+        <v>0.02905515635056267</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3648454127.572449</v>
+        <v>4344543857.083374</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1288054577759682</v>
+        <v>0.141408876031196</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01895960161777466</v>
+        <v>0.026857875238204</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3029297394.085998</v>
+        <v>3458680014.420666</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1392011180309041</v>
+        <v>0.1437336242827189</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0389855763179901</v>
+        <v>0.04091122568496895</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_421.xlsx
+++ b/output/fit_clients/fit_round_421.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2450633853.673444</v>
+        <v>2408999064.191828</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07976542500228662</v>
+        <v>0.08366791885137226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03944889598658969</v>
+        <v>0.04134939000995171</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2378087536.079324</v>
+        <v>1757739560.73972</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1686118584832262</v>
+        <v>0.1754547813279494</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05003579544811953</v>
+        <v>0.04996514090351765</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4115554505.680732</v>
+        <v>3858427771.777412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1593286483143245</v>
+        <v>0.1053424154255292</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03791488525297219</v>
+        <v>0.02938622704281908</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>214</v>
+      </c>
+      <c r="J4" t="n">
+        <v>420</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35.09967621130501</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3144793803.072983</v>
+        <v>2906369510.399839</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1031678896446411</v>
+        <v>0.09299883453389421</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05051074472794214</v>
+        <v>0.04091390754414332</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>173</v>
+      </c>
+      <c r="J5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2765366199.974791</v>
+        <v>2535877279.559242</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1360304098038179</v>
+        <v>0.1356040187166701</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04999232673694633</v>
+        <v>0.03891485485534635</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2647381487.7672</v>
+        <v>2924154139.116926</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08127775315265458</v>
+        <v>0.06793943381274574</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0436678656481416</v>
+        <v>0.04315034203296381</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3834407374.962838</v>
+        <v>3066180725.622728</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1746014988088568</v>
+        <v>0.202939343531438</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02607956330127764</v>
+        <v>0.02770190193910752</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2269440015.115075</v>
+        <v>1855658073.502653</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1229922810397648</v>
+        <v>0.1552340226554519</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0235783148361056</v>
+        <v>0.03081913108521919</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4501902000.561494</v>
+        <v>3757810293.008224</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1723795158329201</v>
+        <v>0.1947460080291221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03350220586441025</v>
+        <v>0.04809750506801876</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>335</v>
+      </c>
+      <c r="J10" t="n">
+        <v>421</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3923229689.813657</v>
+        <v>4283635322.60224</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1452666733754376</v>
+        <v>0.1824177151796665</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03218865112771391</v>
+        <v>0.0356887326414024</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>173</v>
+      </c>
+      <c r="J11" t="n">
+        <v>421</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2131622219.426028</v>
+        <v>3213315910.560895</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1354199590283247</v>
+        <v>0.15097370337889</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05280333950953033</v>
+        <v>0.04935119473395876</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4116983673.752637</v>
+        <v>4377047946.078202</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07026367632319512</v>
+        <v>0.08984630339610007</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03125587953098738</v>
+        <v>0.02526766347035841</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>220</v>
+      </c>
+      <c r="J13" t="n">
+        <v>420</v>
+      </c>
+      <c r="K13" t="n">
+        <v>39.93883658708291</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3002342169.331629</v>
+        <v>2497390756.146922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1321958417604362</v>
+        <v>0.1449758697966125</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02702585588067967</v>
+        <v>0.02701642206414275</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>420</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24.69079046269711</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1221984553.232647</v>
+        <v>1415427045.767579</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07525855879874306</v>
+        <v>0.09778398768218922</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04015168339865073</v>
+        <v>0.03255947457481151</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1961492572.872009</v>
+        <v>2582535461.78689</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09525801467862174</v>
+        <v>0.08974573634258036</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03782253033365212</v>
+        <v>0.04567701441719312</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5238163178.37708</v>
+        <v>5124934366.613702</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1672536132105258</v>
+        <v>0.1607945697995268</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0379025838542744</v>
+        <v>0.04408630531495773</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>204</v>
+      </c>
+      <c r="J17" t="n">
+        <v>421</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2555864669.847651</v>
+        <v>3239465122.876519</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1436810215220006</v>
+        <v>0.1505571331646458</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03336146824790832</v>
+        <v>0.02881068501240146</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>108</v>
+      </c>
+      <c r="J18" t="n">
+        <v>416</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1047170913.197178</v>
+        <v>1088750170.039304</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1865531399478576</v>
+        <v>0.1504357125261336</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01968766508310858</v>
+        <v>0.02495678365548724</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2419279134.043054</v>
+        <v>1893131377.921742</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1323847230400663</v>
+        <v>0.1055397570432546</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02354077316408179</v>
+        <v>0.02329562373659827</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2558935086.302082</v>
+        <v>2480150337.23313</v>
       </c>
       <c r="F21" t="n">
-        <v>0.096520425057412</v>
+        <v>0.07426749797616063</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04548152552903593</v>
+        <v>0.03460660804969542</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3664542915.34423</v>
+        <v>3633753013.142277</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1032663990272589</v>
+        <v>0.1309929888008405</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04501941033861816</v>
+        <v>0.05670752790305979</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>117</v>
+      </c>
+      <c r="J22" t="n">
+        <v>421</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1290127562.314158</v>
+        <v>1487450195.566698</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1291622879821399</v>
+        <v>0.1223590676846664</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05185803342840955</v>
+        <v>0.05286691699154034</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1277,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4106873863.090649</v>
+        <v>2946251616.73765</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09921774503023993</v>
+        <v>0.09265877954059482</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03522581174419813</v>
+        <v>0.03429835522966154</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>133</v>
+      </c>
+      <c r="J24" t="n">
+        <v>420</v>
+      </c>
+      <c r="K24" t="n">
+        <v>24.85744123887309</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1005906092.8879</v>
+        <v>998917343.1498839</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07692026454987379</v>
+        <v>0.1183439754510517</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0257195023869627</v>
+        <v>0.02871363000907952</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1427751180.208769</v>
+        <v>1402873115.53472</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08939753879056124</v>
+        <v>0.08830466272536117</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02441275025537708</v>
+        <v>0.0340938713357932</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3342937747.27161</v>
+        <v>3402432402.438532</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1080307621906682</v>
+        <v>0.1234506036655684</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02072595375288859</v>
+        <v>0.02111497417418302</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>180</v>
+      </c>
+      <c r="J27" t="n">
+        <v>420</v>
+      </c>
+      <c r="K27" t="n">
+        <v>30.79091027954786</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3618384952.54823</v>
+        <v>3754396331.94097</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09562422431947783</v>
+        <v>0.1340380851836544</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03132238655476743</v>
+        <v>0.04243576482128675</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>103</v>
+      </c>
+      <c r="J28" t="n">
+        <v>421</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5000584701.773322</v>
+        <v>5090122944.804911</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1102822254165884</v>
+        <v>0.1139928699883908</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03238945081825348</v>
+        <v>0.03586929510928172</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>351</v>
+      </c>
+      <c r="J29" t="n">
+        <v>421</v>
+      </c>
+      <c r="K29" t="n">
+        <v>41.31354840730523</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2015562611.3729</v>
+        <v>1727603664.621606</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09022848349330193</v>
+        <v>0.1161444878631287</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02815667861194712</v>
+        <v>0.02835972079782935</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1487385400.306197</v>
+        <v>1113363853.040534</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09354190691618142</v>
+        <v>0.08237134808597543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03465921211841212</v>
+        <v>0.04264296883877848</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1739270653.678411</v>
+        <v>1302046644.830208</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1118058986656389</v>
+        <v>0.1114467525169693</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03259002741925697</v>
+        <v>0.03560282513704808</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3068991395.310223</v>
+        <v>2047346920.830871</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1550274739090167</v>
+        <v>0.1795454674490529</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04921027631613219</v>
+        <v>0.04090747393978777</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1501236738.627667</v>
+        <v>1355398190.64051</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08006720339977338</v>
+        <v>0.1138065930793766</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02804946110067849</v>
+        <v>0.0278222972504651</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1270614929.696397</v>
+        <v>1217130828.724683</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08565150827507674</v>
+        <v>0.08287532326914482</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03893888476365878</v>
+        <v>0.0451385657417713</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2341616210.82743</v>
+        <v>2491858341.364803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1499285950397625</v>
+        <v>0.1439745533072678</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02607113525788273</v>
+        <v>0.02077821373235962</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1824556849.742223</v>
+        <v>2021571139.376038</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06755335402636173</v>
+        <v>0.08660983080023092</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03816087122698417</v>
+        <v>0.0323227612276004</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1698132005.25058</v>
+        <v>1375309359.271917</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07657272218207449</v>
+        <v>0.1136117494606265</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03182898326139923</v>
+        <v>0.0255330756073103</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1937209101.027258</v>
+        <v>1808773565.423936</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1913432696892049</v>
+        <v>0.1846892243745932</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02970248337803815</v>
+        <v>0.03127687475537573</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1741981617.506979</v>
+        <v>1796720147.631366</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1372664299948791</v>
+        <v>0.1004094650097612</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04161298860614612</v>
+        <v>0.05843605782005791</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2737507229.716898</v>
+        <v>2199612879.4664</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1413821023254902</v>
+        <v>0.164709742785888</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03157760467015432</v>
+        <v>0.04292554919618161</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3912544422.57404</v>
+        <v>2866798021.285948</v>
       </c>
       <c r="F42" t="n">
-        <v>0.105729310806634</v>
+        <v>0.08753531505895006</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03663784353473563</v>
+        <v>0.04264154291350166</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>180</v>
+      </c>
+      <c r="J42" t="n">
+        <v>420</v>
+      </c>
+      <c r="K42" t="n">
+        <v>26.95100568936488</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1954044960.817094</v>
+        <v>2117815603.488468</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1786379955139529</v>
+        <v>0.179221909913603</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02058589400700114</v>
+        <v>0.0252284489230704</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2184958666.39253</v>
+        <v>1842778326.771835</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09198513169705599</v>
+        <v>0.09612528909179811</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0249940365103759</v>
+        <v>0.03026603188006564</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2186991033.90308</v>
+        <v>2202627836.293133</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1203973566816411</v>
+        <v>0.1934889495787563</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04910071271299072</v>
+        <v>0.04622665973424554</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4780791380.351636</v>
+        <v>5077103866.552658</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1669572904131601</v>
+        <v>0.1622429986393131</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04852019720129156</v>
+        <v>0.03931102549724499</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>252</v>
+      </c>
+      <c r="J46" t="n">
+        <v>420</v>
+      </c>
+      <c r="K46" t="n">
+        <v>40.3927909117949</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5189734522.542051</v>
+        <v>3527537910.329471</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1513622148746952</v>
+        <v>0.1309049583111588</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05354337808326085</v>
+        <v>0.05609817217907574</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>188</v>
+      </c>
+      <c r="J47" t="n">
+        <v>419</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3298911352.624541</v>
+        <v>4311215647.913215</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08430039079682923</v>
+        <v>0.08728032381662847</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03331137180350937</v>
+        <v>0.02485264587938337</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>215</v>
+      </c>
+      <c r="J48" t="n">
+        <v>421</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1874289514.609359</v>
+        <v>1702000725.965343</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1883707027203891</v>
+        <v>0.1680140108737865</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04043410849411726</v>
+        <v>0.04435167716389788</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2996448546.44119</v>
+        <v>4229256397.565683</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1485117351850278</v>
+        <v>0.1686602076219061</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04741311057914066</v>
+        <v>0.03552989033065741</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>145</v>
+      </c>
+      <c r="J50" t="n">
+        <v>421</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1419474012.001662</v>
+        <v>1484827126.980614</v>
       </c>
       <c r="F51" t="n">
-        <v>0.147432170718948</v>
+        <v>0.1534032340131291</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05287588623018022</v>
+        <v>0.034711071855611</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3992803202.558047</v>
+        <v>5277438787.728064</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1250653240400712</v>
+        <v>0.1031963575890483</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04758608884471027</v>
+        <v>0.05911184034338213</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>243</v>
+      </c>
+      <c r="J52" t="n">
+        <v>420</v>
+      </c>
+      <c r="K52" t="n">
+        <v>38.44162425675018</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2675630964.4967</v>
+        <v>2788946639.359607</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1741500778776099</v>
+        <v>0.160303116453251</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0274453842534995</v>
+        <v>0.03477612936427246</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>62</v>
+      </c>
+      <c r="J53" t="n">
+        <v>419</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4084698141.338028</v>
+        <v>4080077399.307514</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1033943551028706</v>
+        <v>0.1260058752857882</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05133632730046524</v>
+        <v>0.04236224054575788</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>224</v>
+      </c>
+      <c r="J54" t="n">
+        <v>421</v>
+      </c>
+      <c r="K54" t="n">
+        <v>43.06214676399099</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3934155631.429648</v>
+        <v>4867252273.472075</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1447142716688704</v>
+        <v>0.1945670853857062</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02157440702905429</v>
+        <v>0.03010149390140363</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>209</v>
+      </c>
+      <c r="J55" t="n">
+        <v>420</v>
+      </c>
+      <c r="K55" t="n">
+        <v>41.19067631061905</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1730057111.100876</v>
+        <v>1415422775.242524</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1237854188457678</v>
+        <v>0.138051221423862</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04032836000879335</v>
+        <v>0.05621419644067834</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4466677178.422602</v>
+        <v>3748229009.656597</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1610556469280866</v>
+        <v>0.1468939271662962</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01975103570603695</v>
+        <v>0.01881320953905402</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>182</v>
+      </c>
+      <c r="J57" t="n">
+        <v>421</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1306262589.789174</v>
+        <v>1727124546.249708</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1233586654886354</v>
+        <v>0.1385910855092499</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02896613236759262</v>
+        <v>0.03736533462846365</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4664559884.280841</v>
+        <v>4094915437.571769</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1166616222826342</v>
+        <v>0.08936127073558725</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03409584924843926</v>
+        <v>0.04489933763718505</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>205</v>
+      </c>
+      <c r="J59" t="n">
+        <v>421</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2553,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3441099297.337125</v>
+        <v>2844253802.921221</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1672387801532157</v>
+        <v>0.1875237572315221</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02033484390076027</v>
+        <v>0.02068825901808984</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="n">
+        <v>31.73939228700662</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2632444498.31289</v>
+        <v>3292681844.712315</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1462415224916839</v>
+        <v>0.1225455035568581</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02969153568128086</v>
+        <v>0.02777674749441463</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1721345907.497114</v>
+        <v>1737146570.665833</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1333908357199535</v>
+        <v>0.1922851410315408</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04103063311046069</v>
+        <v>0.04739308725529034</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4840548008.378701</v>
+        <v>4292014277.809077</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1044010085517786</v>
+        <v>0.100926917971095</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04049418326274993</v>
+        <v>0.03290596920676203</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>210</v>
+      </c>
+      <c r="J63" t="n">
+        <v>420</v>
+      </c>
+      <c r="K63" t="n">
+        <v>39.12045037782325</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4941626563.667693</v>
+        <v>3916974868.668603</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1611395567199435</v>
+        <v>0.1189862050427016</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03100520175211153</v>
+        <v>0.02181035312100744</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>211</v>
+      </c>
+      <c r="J64" t="n">
+        <v>420</v>
+      </c>
+      <c r="K64" t="n">
+        <v>36.14390808361748</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3957894091.058547</v>
+        <v>3755827037.608423</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1289173330018884</v>
+        <v>0.1233299081469194</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03018974520699019</v>
+        <v>0.02941363329377971</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>308</v>
+      </c>
+      <c r="J65" t="n">
+        <v>420</v>
+      </c>
+      <c r="K65" t="n">
+        <v>32.71697925862952</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4096175962.014047</v>
+        <v>5688662144.678117</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1204656852788135</v>
+        <v>0.1153070324145952</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03256518051987235</v>
+        <v>0.04096601835894747</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>207</v>
+      </c>
+      <c r="J66" t="n">
+        <v>421</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2164101637.429855</v>
+        <v>3426473809.154258</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09048707934374682</v>
+        <v>0.08066471495906448</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04932187004404028</v>
+        <v>0.04250605000170461</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5738797614.105309</v>
+        <v>5422365374.478114</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1267379822037144</v>
+        <v>0.122666634111529</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04754341596922092</v>
+        <v>0.04270597673446506</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>230</v>
+      </c>
+      <c r="J68" t="n">
+        <v>420</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40.7938092008369</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2162522986.617367</v>
+        <v>2474597738.717257</v>
       </c>
       <c r="F69" t="n">
-        <v>0.175977501253726</v>
+        <v>0.135994439523536</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04586840226576938</v>
+        <v>0.05284797055432123</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2551650148.420202</v>
+        <v>2954622455.882986</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07437744021433065</v>
+        <v>0.07592448482564249</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03977116256764116</v>
+        <v>0.03089200220983748</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3528463611.588599</v>
+        <v>3536365691.946676</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1559501616001478</v>
+        <v>0.1272074574141228</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02920154682408778</v>
+        <v>0.02061731653720302</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>294</v>
+      </c>
+      <c r="J71" t="n">
+        <v>419</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1542618654.228182</v>
+        <v>1612719757.489507</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09861188262988736</v>
+        <v>0.1045673041698342</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04723509782556495</v>
+        <v>0.05297590122381671</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3574564828.926804</v>
+        <v>3334849259.138433</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1015298527132509</v>
+        <v>0.1064218617828972</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0485208769839859</v>
+        <v>0.0442538029328281</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2631275080.91165</v>
+        <v>3755853058.541457</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1474118864918626</v>
+        <v>0.1784344906681038</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0234302681738478</v>
+        <v>0.03337998870476312</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>120</v>
+      </c>
+      <c r="J74" t="n">
+        <v>421</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2315978647.185938</v>
+        <v>1675451744.766569</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1497166479323264</v>
+        <v>0.1618574277468244</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03701396304264554</v>
+        <v>0.02480537923998093</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4605837308.893221</v>
+        <v>4451850117.758446</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1006728638384189</v>
+        <v>0.09830227335840103</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02352876962067018</v>
+        <v>0.02643757461175559</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>200</v>
+      </c>
+      <c r="J76" t="n">
+        <v>421</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1768231390.491074</v>
+        <v>2190678608.709074</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1262935927959398</v>
+        <v>0.1851841640416678</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02054010224047635</v>
+        <v>0.02629521885463243</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3591915280.367548</v>
+        <v>4280586864.556973</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1047676949781391</v>
+        <v>0.1349113861871141</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03895198816720727</v>
+        <v>0.05031031694855736</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>211</v>
+      </c>
+      <c r="J78" t="n">
+        <v>420</v>
+      </c>
+      <c r="K78" t="n">
+        <v>41.29665156177646</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1642529471.203028</v>
+        <v>1229321380.843589</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1470599125743241</v>
+        <v>0.1157589808513037</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03160416517738322</v>
+        <v>0.03373983207955463</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4847939362.630737</v>
+        <v>3800476745.665816</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1050599584858313</v>
+        <v>0.09376481403272252</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03526433553273252</v>
+        <v>0.0308247382477576</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>205</v>
+      </c>
+      <c r="J80" t="n">
+        <v>421</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3362976112.483068</v>
+        <v>3826597363.851596</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09125495211326305</v>
+        <v>0.1331165751387138</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02066111797376204</v>
+        <v>0.02759829673775624</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>195</v>
+      </c>
+      <c r="J81" t="n">
+        <v>421</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5557384836.704926</v>
+        <v>5693291659.46434</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1684057088780461</v>
+        <v>0.2084844740355341</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02293058357393583</v>
+        <v>0.02095418567773341</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>285</v>
+      </c>
+      <c r="J82" t="n">
+        <v>421</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1800220794.425536</v>
+        <v>2257578333.028674</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1079454976363116</v>
+        <v>0.1028436081717084</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04205459420537573</v>
+        <v>0.03705309854024023</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1827039900.122845</v>
+        <v>1567587917.643883</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08615095724546198</v>
+        <v>0.1014013811031756</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04172299783986128</v>
+        <v>0.04556950326509258</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3175826509.612282</v>
+        <v>3450651608.06663</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1723331383923597</v>
+        <v>0.1611396346022244</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03666014985200125</v>
+        <v>0.04933170929861701</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>54</v>
+      </c>
+      <c r="J85" t="n">
+        <v>421</v>
+      </c>
+      <c r="K85" t="n">
+        <v>56.97049748003702</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2503692935.814527</v>
+        <v>1945994213.981407</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1672724973407031</v>
+        <v>0.1187487141426147</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02191040428705651</v>
+        <v>0.01837171757674556</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>937571469.0342885</v>
+        <v>1039234251.585881</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1294222551749358</v>
+        <v>0.1841341435491693</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03659408917692703</v>
+        <v>0.02900963893689681</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3590640793.436339</v>
+        <v>2649331558.945644</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1285587641628411</v>
+        <v>0.1679525554385768</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03781486129414389</v>
+        <v>0.03187496007189115</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>54</v>
+      </c>
+      <c r="J88" t="n">
+        <v>419</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2135199848.185237</v>
+        <v>2850142086.618622</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1592443142338912</v>
+        <v>0.09972022624368353</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02626580351280543</v>
+        <v>0.03878705184871906</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1722716115.489461</v>
+        <v>1881007898.752976</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1224897413850313</v>
+        <v>0.131017805749744</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05306480194797637</v>
+        <v>0.05371954938296249</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1654091637.778287</v>
+        <v>1629415578.075171</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1641198268119425</v>
+        <v>0.1209535595335413</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04313249401608733</v>
+        <v>0.04980559077032255</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1957757926.608702</v>
+        <v>1878044463.110171</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1003641704346355</v>
+        <v>0.08404686531344675</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04086576235257162</v>
+        <v>0.04273362772762266</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4254059301.071352</v>
+        <v>4836806522.312397</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1210570351060647</v>
+        <v>0.1294736646110012</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04648988848205875</v>
+        <v>0.03813899607290748</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>202</v>
+      </c>
+      <c r="J93" t="n">
+        <v>421</v>
+      </c>
+      <c r="K93" t="n">
+        <v>41.88235235604052</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2050864673.32235</v>
+        <v>2103686369.237052</v>
       </c>
       <c r="F94" t="n">
-        <v>0.116154812155692</v>
+        <v>0.1286359400183119</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02858418154269185</v>
+        <v>0.02934058367599726</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3173655692.615476</v>
+        <v>1972542434.592101</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1216024852664146</v>
+        <v>0.12079968560205</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04168650042093881</v>
+        <v>0.04532263553723064</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1818365894.379301</v>
+        <v>1757261372.832198</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08998485690075067</v>
+        <v>0.09509808994088188</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0351011899849708</v>
+        <v>0.03374739947625234</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4405631547.685619</v>
+        <v>3548576224.822574</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1545728095166459</v>
+        <v>0.154576471156151</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0198616116545519</v>
+        <v>0.01807661724195857</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>220</v>
+      </c>
+      <c r="J97" t="n">
+        <v>419</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3086224352.917446</v>
+        <v>2492255792.665082</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1134314820419863</v>
+        <v>0.1156608023238357</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02872173750289621</v>
+        <v>0.02923479886650646</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2066614107.033912</v>
+        <v>2135960454.195127</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1186459633824532</v>
+        <v>0.1195170492747037</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02905515635056267</v>
+        <v>0.02718467041268484</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4344543857.083374</v>
+        <v>4782962089.715359</v>
       </c>
       <c r="F100" t="n">
-        <v>0.141408876031196</v>
+        <v>0.1775493042661541</v>
       </c>
       <c r="G100" t="n">
-        <v>0.026857875238204</v>
+        <v>0.01801723783122544</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>196</v>
+      </c>
+      <c r="J100" t="n">
+        <v>421</v>
+      </c>
+      <c r="K100" t="n">
+        <v>41.39855329179154</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3458680014.420666</v>
+        <v>3600459100.81474</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1437336242827189</v>
+        <v>0.1673782070716312</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04091122568496895</v>
+        <v>0.05729035733934369</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
